--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il6-Il6ra.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il6-Il6ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Il6ra</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.15588561187605</v>
+        <v>5.812736999999999</v>
       </c>
       <c r="H2">
-        <v>1.15588561187605</v>
+        <v>17.438211</v>
       </c>
       <c r="I2">
-        <v>0.0136175511737631</v>
+        <v>0.0610307927877553</v>
       </c>
       <c r="J2">
-        <v>0.0136175511737631</v>
+        <v>0.06103079278775531</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.727744990434165</v>
+        <v>1.282011666666667</v>
       </c>
       <c r="N2">
-        <v>0.727744990434165</v>
+        <v>3.846035</v>
       </c>
       <c r="O2">
-        <v>0.008904053734645048</v>
+        <v>0.01488251892520851</v>
       </c>
       <c r="P2">
-        <v>0.008904053734645048</v>
+        <v>0.01488251892520851</v>
       </c>
       <c r="Q2">
-        <v>0.841189963557725</v>
+        <v>7.451996649264999</v>
       </c>
       <c r="R2">
-        <v>0.841189963557725</v>
+        <v>67.067969843385</v>
       </c>
       <c r="S2">
-        <v>0.0001212514073854654</v>
+        <v>0.0009082919286842471</v>
       </c>
       <c r="T2">
-        <v>0.0001212514073854654</v>
+        <v>0.0009082919286842471</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.15588561187605</v>
+        <v>5.812736999999999</v>
       </c>
       <c r="H3">
-        <v>1.15588561187605</v>
+        <v>17.438211</v>
       </c>
       <c r="I3">
-        <v>0.0136175511737631</v>
+        <v>0.0610307927877553</v>
       </c>
       <c r="J3">
-        <v>0.0136175511737631</v>
+        <v>0.06103079278775531</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.18237427867707</v>
+        <v>1.220258666666667</v>
       </c>
       <c r="N3">
-        <v>1.18237427867707</v>
+        <v>3.660776</v>
       </c>
       <c r="O3">
-        <v>0.01446650165949196</v>
+        <v>0.01416564542469039</v>
       </c>
       <c r="P3">
-        <v>0.01446650165949196</v>
+        <v>0.01416564542469039</v>
       </c>
       <c r="Q3">
-        <v>1.366689416575148</v>
+        <v>7.093042701303998</v>
       </c>
       <c r="R3">
-        <v>1.366689416575148</v>
+        <v>63.837384311736</v>
       </c>
       <c r="S3">
-        <v>0.0001969983266534606</v>
+        <v>0.0008645405706190929</v>
       </c>
       <c r="T3">
-        <v>0.0001969983266534606</v>
+        <v>0.000864540570619093</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.15588561187605</v>
+        <v>5.812736999999999</v>
       </c>
       <c r="H4">
-        <v>1.15588561187605</v>
+        <v>17.438211</v>
       </c>
       <c r="I4">
-        <v>0.0136175511737631</v>
+        <v>0.0610307927877553</v>
       </c>
       <c r="J4">
-        <v>0.0136175511737631</v>
+        <v>0.06103079278775531</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.5153029985715</v>
+        <v>19.08597433333334</v>
       </c>
       <c r="N4">
-        <v>17.5153029985715</v>
+        <v>57.25792300000001</v>
       </c>
       <c r="O4">
-        <v>0.214301989196556</v>
+        <v>0.221563798214429</v>
       </c>
       <c r="P4">
-        <v>0.214301989196556</v>
+        <v>0.221563798214429</v>
       </c>
       <c r="Q4">
-        <v>20.24568672369823</v>
+        <v>110.941749188417</v>
       </c>
       <c r="R4">
-        <v>20.24568672369823</v>
+        <v>998.4757426957531</v>
       </c>
       <c r="S4">
-        <v>0.002918268304523328</v>
+        <v>0.01352221425809285</v>
       </c>
       <c r="T4">
-        <v>0.002918268304523328</v>
+        <v>0.01352221425809285</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.15588561187605</v>
+        <v>5.812736999999999</v>
       </c>
       <c r="H5">
-        <v>1.15588561187605</v>
+        <v>17.438211</v>
       </c>
       <c r="I5">
-        <v>0.0136175511737631</v>
+        <v>0.0610307927877553</v>
       </c>
       <c r="J5">
-        <v>0.0136175511737631</v>
+        <v>0.06103079278775531</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.4526792794311</v>
+        <v>29.761961</v>
       </c>
       <c r="N5">
-        <v>28.4526792794311</v>
+        <v>89.285883</v>
       </c>
       <c r="O5">
-        <v>0.3481221973751187</v>
+        <v>0.3454983752101716</v>
       </c>
       <c r="P5">
-        <v>0.3481221973751187</v>
+        <v>0.3454983752101716</v>
       </c>
       <c r="Q5">
-        <v>32.88804259841823</v>
+        <v>172.998451897257</v>
       </c>
       <c r="R5">
-        <v>32.88804259841823</v>
+        <v>1556.986067075313</v>
       </c>
       <c r="S5">
-        <v>0.004740571837478537</v>
+        <v>0.02108603974595812</v>
       </c>
       <c r="T5">
-        <v>0.004740571837478537</v>
+        <v>0.02108603974595812</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.15588561187605</v>
+        <v>5.812736999999999</v>
       </c>
       <c r="H6">
-        <v>1.15588561187605</v>
+        <v>17.438211</v>
       </c>
       <c r="I6">
-        <v>0.0136175511737631</v>
+        <v>0.0610307927877553</v>
       </c>
       <c r="J6">
-        <v>0.0136175511737631</v>
+        <v>0.06103079278775531</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.724670877907</v>
+        <v>34.65991666666667</v>
       </c>
       <c r="N6">
-        <v>33.724670877907</v>
+        <v>103.97975</v>
       </c>
       <c r="O6">
-        <v>0.4126256939274227</v>
+        <v>0.4023573881187897</v>
       </c>
       <c r="P6">
-        <v>0.4126256939274227</v>
+        <v>0.4023573881187896</v>
       </c>
       <c r="Q6">
-        <v>38.98186183302794</v>
+        <v>201.46898002525</v>
       </c>
       <c r="R6">
-        <v>38.98186183302794</v>
+        <v>1813.22082022725</v>
       </c>
       <c r="S6">
-        <v>0.005618951502666188</v>
+        <v>0.02455619038090029</v>
       </c>
       <c r="T6">
-        <v>0.005618951502666188</v>
+        <v>0.02455619038090029</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.15588561187605</v>
+        <v>5.812736999999999</v>
       </c>
       <c r="H7">
-        <v>1.15588561187605</v>
+        <v>17.438211</v>
       </c>
       <c r="I7">
-        <v>0.0136175511737631</v>
+        <v>0.0610307927877553</v>
       </c>
       <c r="J7">
-        <v>0.0136175511737631</v>
+        <v>0.06103079278775531</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.129100733219478</v>
+        <v>0.1319933333333333</v>
       </c>
       <c r="N7">
-        <v>0.129100733219478</v>
+        <v>0.39598</v>
       </c>
       <c r="O7">
-        <v>0.001579564106765635</v>
+        <v>0.001532274106710954</v>
       </c>
       <c r="P7">
-        <v>0.001579564106765635</v>
+        <v>0.001532274106710954</v>
       </c>
       <c r="Q7">
-        <v>0.149225680011043</v>
+        <v>0.7672425324199998</v>
       </c>
       <c r="R7">
-        <v>0.149225680011043</v>
+        <v>6.90518279178</v>
       </c>
       <c r="S7">
-        <v>2.150979505612043E-05</v>
+        <v>9.351590350071908E-05</v>
       </c>
       <c r="T7">
-        <v>2.150979505612043E-05</v>
+        <v>9.351590350071909E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>69.1123855910925</v>
+        <v>70.159766</v>
       </c>
       <c r="H8">
-        <v>69.1123855910925</v>
+        <v>210.479298</v>
       </c>
       <c r="I8">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="J8">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.727744990434165</v>
+        <v>1.282011666666667</v>
       </c>
       <c r="N8">
-        <v>0.727744990434165</v>
+        <v>3.846035</v>
       </c>
       <c r="O8">
-        <v>0.008904053734645048</v>
+        <v>0.01488251892520851</v>
       </c>
       <c r="P8">
-        <v>0.008904053734645048</v>
+        <v>0.01488251892520851</v>
       </c>
       <c r="Q8">
-        <v>50.29619239087194</v>
+        <v>89.94563854260335</v>
       </c>
       <c r="R8">
-        <v>50.29619239087194</v>
+        <v>809.51074688343</v>
       </c>
       <c r="S8">
-        <v>0.007249829857373067</v>
+        <v>0.01096308833105222</v>
       </c>
       <c r="T8">
-        <v>0.007249829857373067</v>
+        <v>0.01096308833105222</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>69.1123855910925</v>
+        <v>70.159766</v>
       </c>
       <c r="H9">
-        <v>69.1123855910925</v>
+        <v>210.479298</v>
       </c>
       <c r="I9">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="J9">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.18237427867707</v>
+        <v>1.220258666666667</v>
       </c>
       <c r="N9">
-        <v>1.18237427867707</v>
+        <v>3.660776</v>
       </c>
       <c r="O9">
-        <v>0.01446650165949196</v>
+        <v>0.01416564542469039</v>
       </c>
       <c r="P9">
-        <v>0.01446650165949196</v>
+        <v>0.01416564542469039</v>
       </c>
       <c r="Q9">
-        <v>81.71670706091952</v>
+        <v>85.61306251280533</v>
       </c>
       <c r="R9">
-        <v>81.71670706091952</v>
+        <v>770.5175626152479</v>
       </c>
       <c r="S9">
-        <v>0.01177886823106675</v>
+        <v>0.01043500921031556</v>
       </c>
       <c r="T9">
-        <v>0.01177886823106675</v>
+        <v>0.01043500921031556</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>69.1123855910925</v>
+        <v>70.159766</v>
       </c>
       <c r="H10">
-        <v>69.1123855910925</v>
+        <v>210.479298</v>
       </c>
       <c r="I10">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="J10">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.5153029985715</v>
+        <v>19.08597433333334</v>
       </c>
       <c r="N10">
-        <v>17.5153029985715</v>
+        <v>57.25792300000001</v>
       </c>
       <c r="O10">
-        <v>0.214301989196556</v>
+        <v>0.221563798214429</v>
       </c>
       <c r="P10">
-        <v>0.214301989196556</v>
+        <v>0.221563798214429</v>
       </c>
       <c r="Q10">
-        <v>1210.524374582092</v>
+        <v>1339.067493108673</v>
       </c>
       <c r="R10">
-        <v>1210.524374582092</v>
+        <v>12051.60743797805</v>
       </c>
       <c r="S10">
-        <v>0.1744882731026743</v>
+        <v>0.1632131968381948</v>
       </c>
       <c r="T10">
-        <v>0.1744882731026743</v>
+        <v>0.1632131968381947</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>69.1123855910925</v>
+        <v>70.159766</v>
       </c>
       <c r="H11">
-        <v>69.1123855910925</v>
+        <v>210.479298</v>
       </c>
       <c r="I11">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="J11">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>28.4526792794311</v>
+        <v>29.761961</v>
       </c>
       <c r="N11">
-        <v>28.4526792794311</v>
+        <v>89.285883</v>
       </c>
       <c r="O11">
-        <v>0.3481221973751187</v>
+        <v>0.3454983752101716</v>
       </c>
       <c r="P11">
-        <v>0.3481221973751187</v>
+        <v>0.3454983752101716</v>
       </c>
       <c r="Q11">
-        <v>1966.43254145973</v>
+        <v>2088.092219461126</v>
       </c>
       <c r="R11">
-        <v>1966.43254145973</v>
+        <v>18792.82997515013</v>
       </c>
       <c r="S11">
-        <v>0.2834469305507921</v>
+        <v>0.2545086100477488</v>
       </c>
       <c r="T11">
-        <v>0.2834469305507921</v>
+        <v>0.2545086100477488</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>69.1123855910925</v>
+        <v>70.159766</v>
       </c>
       <c r="H12">
-        <v>69.1123855910925</v>
+        <v>210.479298</v>
       </c>
       <c r="I12">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="J12">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.724670877907</v>
+        <v>34.65991666666667</v>
       </c>
       <c r="N12">
-        <v>33.724670877907</v>
+        <v>103.97975</v>
       </c>
       <c r="O12">
-        <v>0.4126256939274227</v>
+        <v>0.4023573881187897</v>
       </c>
       <c r="P12">
-        <v>0.4126256939274227</v>
+        <v>0.4023573881187896</v>
       </c>
       <c r="Q12">
-        <v>2330.792457646597</v>
+        <v>2431.731642912834</v>
       </c>
       <c r="R12">
-        <v>2330.792457646597</v>
+        <v>21885.5847862155</v>
       </c>
       <c r="S12">
-        <v>0.3359667590633157</v>
+        <v>0.2963933463659917</v>
       </c>
       <c r="T12">
-        <v>0.3359667590633157</v>
+        <v>0.2963933463659916</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>69.1123855910925</v>
+        <v>70.159766</v>
       </c>
       <c r="H13">
-        <v>69.1123855910925</v>
+        <v>210.479298</v>
       </c>
       <c r="I13">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="J13">
-        <v>0.8142167683876937</v>
+        <v>0.7366419882377957</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.129100733219478</v>
+        <v>0.1319933333333333</v>
       </c>
       <c r="N13">
-        <v>0.129100733219478</v>
+        <v>0.39598</v>
       </c>
       <c r="O13">
-        <v>0.001579564106765635</v>
+        <v>0.001532274106710954</v>
       </c>
       <c r="P13">
-        <v>0.001579564106765635</v>
+        <v>0.001532274106710954</v>
       </c>
       <c r="Q13">
-        <v>8.922459654357327</v>
+        <v>9.260621380226667</v>
       </c>
       <c r="R13">
-        <v>8.922459654357327</v>
+        <v>83.34559242204</v>
       </c>
       <c r="S13">
-        <v>0.001286107582471909</v>
+        <v>0.00112873744449285</v>
       </c>
       <c r="T13">
-        <v>0.001286107582471909</v>
+        <v>0.00112873744449285</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.57931722465259</v>
+        <v>2.862780333333333</v>
       </c>
       <c r="H14">
-        <v>2.57931722465259</v>
+        <v>8.588341</v>
       </c>
       <c r="I14">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="J14">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.727744990434165</v>
+        <v>1.282011666666667</v>
       </c>
       <c r="N14">
-        <v>0.727744990434165</v>
+        <v>3.846035</v>
       </c>
       <c r="O14">
-        <v>0.008904053734645048</v>
+        <v>0.01488251892520851</v>
       </c>
       <c r="P14">
-        <v>0.008904053734645048</v>
+        <v>0.01488251892520851</v>
       </c>
       <c r="Q14">
-        <v>1.877085188981476</v>
+        <v>3.670117786437222</v>
       </c>
       <c r="R14">
-        <v>1.877085188981476</v>
+        <v>33.031060077935</v>
       </c>
       <c r="S14">
-        <v>0.0002705681603520435</v>
+        <v>0.000447334925072761</v>
       </c>
       <c r="T14">
-        <v>0.0002705681603520435</v>
+        <v>0.000447334925072761</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.57931722465259</v>
+        <v>2.862780333333333</v>
       </c>
       <c r="H15">
-        <v>2.57931722465259</v>
+        <v>8.588341</v>
       </c>
       <c r="I15">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="J15">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.18237427867707</v>
+        <v>1.220258666666667</v>
       </c>
       <c r="N15">
-        <v>1.18237427867707</v>
+        <v>3.660776</v>
       </c>
       <c r="O15">
-        <v>0.01446650165949196</v>
+        <v>0.01416564542469039</v>
       </c>
       <c r="P15">
-        <v>0.01446650165949196</v>
+        <v>0.01416564542469039</v>
       </c>
       <c r="Q15">
-        <v>3.049718342977948</v>
+        <v>3.493332512512889</v>
       </c>
       <c r="R15">
-        <v>3.049718342977948</v>
+        <v>31.439992612616</v>
       </c>
       <c r="S15">
-        <v>0.0004395946899454061</v>
+        <v>0.0004257873258220899</v>
       </c>
       <c r="T15">
-        <v>0.0004395946899454061</v>
+        <v>0.0004257873258220899</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>2.57931722465259</v>
+        <v>2.862780333333333</v>
       </c>
       <c r="H16">
-        <v>2.57931722465259</v>
+        <v>8.588341</v>
       </c>
       <c r="I16">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="J16">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.5153029985715</v>
+        <v>19.08597433333334</v>
       </c>
       <c r="N16">
-        <v>17.5153029985715</v>
+        <v>57.25792300000001</v>
       </c>
       <c r="O16">
-        <v>0.214301989196556</v>
+        <v>0.221563798214429</v>
       </c>
       <c r="P16">
-        <v>0.214301989196556</v>
+        <v>0.221563798214429</v>
       </c>
       <c r="Q16">
-        <v>45.17752271922463</v>
+        <v>54.63895196397145</v>
       </c>
       <c r="R16">
-        <v>45.17752271922463</v>
+        <v>491.750567675743</v>
       </c>
       <c r="S16">
-        <v>0.006512010900280928</v>
+        <v>0.00665970764567325</v>
       </c>
       <c r="T16">
-        <v>0.006512010900280928</v>
+        <v>0.00665970764567325</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>2.57931722465259</v>
+        <v>2.862780333333333</v>
       </c>
       <c r="H17">
-        <v>2.57931722465259</v>
+        <v>8.588341</v>
       </c>
       <c r="I17">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="J17">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.4526792794311</v>
+        <v>29.761961</v>
       </c>
       <c r="N17">
-        <v>28.4526792794311</v>
+        <v>89.285883</v>
       </c>
       <c r="O17">
-        <v>0.3481221973751187</v>
+        <v>0.3454983752101716</v>
       </c>
       <c r="P17">
-        <v>0.3481221973751187</v>
+        <v>0.3454983752101716</v>
       </c>
       <c r="Q17">
-        <v>73.38848575295248</v>
+        <v>85.20195663223366</v>
       </c>
       <c r="R17">
-        <v>73.38848575295248</v>
+        <v>766.8176096901029</v>
       </c>
       <c r="S17">
-        <v>0.01057841577876009</v>
+        <v>0.01038490127673313</v>
       </c>
       <c r="T17">
-        <v>0.01057841577876009</v>
+        <v>0.01038490127673313</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>2.57931722465259</v>
+        <v>2.862780333333333</v>
       </c>
       <c r="H18">
-        <v>2.57931722465259</v>
+        <v>8.588341</v>
       </c>
       <c r="I18">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="J18">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>33.724670877907</v>
+        <v>34.65991666666667</v>
       </c>
       <c r="N18">
-        <v>33.724670877907</v>
+        <v>103.97975</v>
       </c>
       <c r="O18">
-        <v>0.4126256939274227</v>
+        <v>0.4023573881187897</v>
       </c>
       <c r="P18">
-        <v>0.4126256939274227</v>
+        <v>0.4023573881187896</v>
       </c>
       <c r="Q18">
-        <v>86.98662449112511</v>
+        <v>99.22372778830555</v>
       </c>
       <c r="R18">
-        <v>86.98662449112511</v>
+        <v>893.0135500947499</v>
       </c>
       <c r="S18">
-        <v>0.01253848845111206</v>
+        <v>0.01209395485879208</v>
       </c>
       <c r="T18">
-        <v>0.01253848845111206</v>
+        <v>0.01209395485879208</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>2.57931722465259</v>
+        <v>2.862780333333333</v>
       </c>
       <c r="H19">
-        <v>2.57931722465259</v>
+        <v>8.588341</v>
       </c>
       <c r="I19">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="J19">
-        <v>0.03038707631550805</v>
+        <v>0.03005774273298925</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.129100733219478</v>
+        <v>0.1319933333333333</v>
       </c>
       <c r="N19">
-        <v>0.129100733219478</v>
+        <v>0.39598</v>
       </c>
       <c r="O19">
-        <v>0.001579564106765635</v>
+        <v>0.001532274106710954</v>
       </c>
       <c r="P19">
-        <v>0.001579564106765635</v>
+        <v>0.001532274106710954</v>
       </c>
       <c r="Q19">
-        <v>0.3329917449082784</v>
+        <v>0.3778679187977778</v>
       </c>
       <c r="R19">
-        <v>0.3329917449082784</v>
+        <v>3.40081126918</v>
       </c>
       <c r="S19">
-        <v>4.799833505752464E-05</v>
+        <v>4.605670089593877E-05</v>
       </c>
       <c r="T19">
-        <v>4.799833505752464E-05</v>
+        <v>4.605670089593878E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.369036798560086</v>
+        <v>2.683173666666666</v>
       </c>
       <c r="H20">
-        <v>0.369036798560086</v>
+        <v>8.049520999999999</v>
       </c>
       <c r="I20">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="J20">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.727744990434165</v>
+        <v>1.282011666666667</v>
       </c>
       <c r="N20">
-        <v>0.727744990434165</v>
+        <v>3.846035</v>
       </c>
       <c r="O20">
-        <v>0.008904053734645048</v>
+        <v>0.01488251892520851</v>
       </c>
       <c r="P20">
-        <v>0.008904053734645048</v>
+        <v>0.01488251892520851</v>
       </c>
       <c r="Q20">
-        <v>0.2685646814379646</v>
+        <v>3.439859944359444</v>
       </c>
       <c r="R20">
-        <v>0.2685646814379646</v>
+        <v>30.95873949923499</v>
       </c>
       <c r="S20">
-        <v>3.871164304036273E-05</v>
+        <v>0.0004192697836993915</v>
       </c>
       <c r="T20">
-        <v>3.871164304036273E-05</v>
+        <v>0.0004192697836993915</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.369036798560086</v>
+        <v>2.683173666666666</v>
       </c>
       <c r="H21">
-        <v>0.369036798560086</v>
+        <v>8.049520999999999</v>
       </c>
       <c r="I21">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="J21">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.18237427867707</v>
+        <v>1.220258666666667</v>
       </c>
       <c r="N21">
-        <v>1.18237427867707</v>
+        <v>3.660776</v>
       </c>
       <c r="O21">
-        <v>0.01446650165949196</v>
+        <v>0.01416564542469039</v>
       </c>
       <c r="P21">
-        <v>0.01446650165949196</v>
+        <v>0.01416564542469039</v>
       </c>
       <c r="Q21">
-        <v>0.4363396185027768</v>
+        <v>3.274165920921777</v>
       </c>
       <c r="R21">
-        <v>0.4363396185027768</v>
+        <v>29.46749328829599</v>
       </c>
       <c r="S21">
-        <v>6.289517841812447E-05</v>
+        <v>0.0003990740494280274</v>
       </c>
       <c r="T21">
-        <v>6.289517841812447E-05</v>
+        <v>0.0003990740494280274</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.369036798560086</v>
+        <v>2.683173666666666</v>
       </c>
       <c r="H22">
-        <v>0.369036798560086</v>
+        <v>8.049520999999999</v>
       </c>
       <c r="I22">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="J22">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.5153029985715</v>
+        <v>19.08597433333334</v>
       </c>
       <c r="N22">
-        <v>17.5153029985715</v>
+        <v>57.25792300000001</v>
       </c>
       <c r="O22">
-        <v>0.214301989196556</v>
+        <v>0.221563798214429</v>
       </c>
       <c r="P22">
-        <v>0.214301989196556</v>
+        <v>0.221563798214429</v>
       </c>
       <c r="Q22">
-        <v>6.463791344402701</v>
+        <v>51.21098373387589</v>
       </c>
       <c r="R22">
-        <v>6.463791344402701</v>
+        <v>460.898853604883</v>
       </c>
       <c r="S22">
-        <v>0.0009317084505383947</v>
+        <v>0.006241887292051792</v>
       </c>
       <c r="T22">
-        <v>0.0009317084505383947</v>
+        <v>0.006241887292051791</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.369036798560086</v>
+        <v>2.683173666666666</v>
       </c>
       <c r="H23">
-        <v>0.369036798560086</v>
+        <v>8.049520999999999</v>
       </c>
       <c r="I23">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="J23">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>28.4526792794311</v>
+        <v>29.761961</v>
       </c>
       <c r="N23">
-        <v>28.4526792794311</v>
+        <v>89.285883</v>
       </c>
       <c r="O23">
-        <v>0.3481221973751187</v>
+        <v>0.3454983752101716</v>
       </c>
       <c r="P23">
-        <v>0.3481221973751187</v>
+        <v>0.3454983752101716</v>
       </c>
       <c r="Q23">
-        <v>10.50008567173815</v>
+        <v>79.85651002356032</v>
       </c>
       <c r="R23">
-        <v>10.50008567173815</v>
+        <v>718.7085902120428</v>
       </c>
       <c r="S23">
-        <v>0.001513510884011923</v>
+        <v>0.009733367702795001</v>
       </c>
       <c r="T23">
-        <v>0.001513510884011923</v>
+        <v>0.009733367702795001</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.369036798560086</v>
+        <v>2.683173666666666</v>
       </c>
       <c r="H24">
-        <v>0.369036798560086</v>
+        <v>8.049520999999999</v>
       </c>
       <c r="I24">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="J24">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.724670877907</v>
+        <v>34.65991666666667</v>
       </c>
       <c r="N24">
-        <v>33.724670877907</v>
+        <v>103.97975</v>
       </c>
       <c r="O24">
-        <v>0.4126256939274227</v>
+        <v>0.4023573881187897</v>
       </c>
       <c r="P24">
-        <v>0.4126256939274227</v>
+        <v>0.4023573881187896</v>
       </c>
       <c r="Q24">
-        <v>12.44564457327536</v>
+        <v>92.99857568886111</v>
       </c>
       <c r="R24">
-        <v>12.44564457327536</v>
+        <v>836.9871811997498</v>
       </c>
       <c r="S24">
-        <v>0.001793949031377574</v>
+        <v>0.01133519775343095</v>
       </c>
       <c r="T24">
-        <v>0.001793949031377574</v>
+        <v>0.01133519775343095</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.369036798560086</v>
+        <v>2.683173666666666</v>
       </c>
       <c r="H25">
-        <v>0.369036798560086</v>
+        <v>8.049520999999999</v>
       </c>
       <c r="I25">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="J25">
-        <v>0.004347642567535104</v>
+        <v>0.02817196375199754</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.129100733219478</v>
+        <v>0.1319933333333333</v>
       </c>
       <c r="N25">
-        <v>0.129100733219478</v>
+        <v>0.39598</v>
       </c>
       <c r="O25">
-        <v>0.001579564106765635</v>
+        <v>0.001532274106710954</v>
       </c>
       <c r="P25">
-        <v>0.001579564106765635</v>
+        <v>0.001532274106710954</v>
       </c>
       <c r="Q25">
-        <v>0.0476429212790759</v>
+        <v>0.3541610361755555</v>
       </c>
       <c r="R25">
-        <v>0.0476429212790759</v>
+        <v>3.187449325579999</v>
       </c>
       <c r="S25">
-        <v>6.867380148724837E-06</v>
+        <v>4.316717059238541E-05</v>
       </c>
       <c r="T25">
-        <v>6.867380148724837E-06</v>
+        <v>4.316717059238541E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.6654212685727</v>
+        <v>0.489874</v>
       </c>
       <c r="H26">
-        <v>11.6654212685727</v>
+        <v>1.469622</v>
       </c>
       <c r="I26">
-        <v>0.1374309615555001</v>
+        <v>0.005143428747268084</v>
       </c>
       <c r="J26">
-        <v>0.1374309615555001</v>
+        <v>0.005143428747268084</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.727744990434165</v>
+        <v>1.282011666666667</v>
       </c>
       <c r="N26">
-        <v>0.727744990434165</v>
+        <v>3.846035</v>
       </c>
       <c r="O26">
-        <v>0.008904053734645048</v>
+        <v>0.01488251892520851</v>
       </c>
       <c r="P26">
-        <v>0.008904053734645048</v>
+        <v>0.01488251892520851</v>
       </c>
       <c r="Q26">
-        <v>8.489451889507944</v>
+        <v>0.6280241831966666</v>
       </c>
       <c r="R26">
-        <v>8.489451889507944</v>
+        <v>5.65221764877</v>
       </c>
       <c r="S26">
-        <v>0.001223692666494111</v>
+        <v>7.654717567167874E-05</v>
       </c>
       <c r="T26">
-        <v>0.001223692666494111</v>
+        <v>7.654717567167874E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>11.6654212685727</v>
+        <v>0.489874</v>
       </c>
       <c r="H27">
-        <v>11.6654212685727</v>
+        <v>1.469622</v>
       </c>
       <c r="I27">
-        <v>0.1374309615555001</v>
+        <v>0.005143428747268084</v>
       </c>
       <c r="J27">
-        <v>0.1374309615555001</v>
+        <v>0.005143428747268084</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.18237427867707</v>
+        <v>1.220258666666667</v>
       </c>
       <c r="N27">
-        <v>1.18237427867707</v>
+        <v>3.660776</v>
       </c>
       <c r="O27">
-        <v>0.01446650165949196</v>
+        <v>0.01416564542469039</v>
       </c>
       <c r="P27">
-        <v>0.01446650165949196</v>
+        <v>0.01416564542469039</v>
       </c>
       <c r="Q27">
-        <v>13.7928940578928</v>
+        <v>0.5977729940746666</v>
       </c>
       <c r="R27">
-        <v>13.7928940578928</v>
+        <v>5.379956946671999</v>
       </c>
       <c r="S27">
-        <v>0.001988145233408219</v>
+        <v>7.285998790095913E-05</v>
       </c>
       <c r="T27">
-        <v>0.001988145233408219</v>
+        <v>7.285998790095915E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>11.6654212685727</v>
+        <v>0.489874</v>
       </c>
       <c r="H28">
-        <v>11.6654212685727</v>
+        <v>1.469622</v>
       </c>
       <c r="I28">
-        <v>0.1374309615555001</v>
+        <v>0.005143428747268084</v>
       </c>
       <c r="J28">
-        <v>0.1374309615555001</v>
+        <v>0.005143428747268084</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>17.5153029985715</v>
+        <v>19.08597433333334</v>
       </c>
       <c r="N28">
-        <v>17.5153029985715</v>
+        <v>57.25792300000001</v>
       </c>
       <c r="O28">
-        <v>0.214301989196556</v>
+        <v>0.221563798214429</v>
       </c>
       <c r="P28">
-        <v>0.214301989196556</v>
+        <v>0.221563798214429</v>
       </c>
       <c r="Q28">
-        <v>204.3233881250312</v>
+        <v>9.349722590567334</v>
       </c>
       <c r="R28">
-        <v>204.3233881250312</v>
+        <v>84.14750331510601</v>
       </c>
       <c r="S28">
-        <v>0.02945172843853909</v>
+        <v>0.001139597609089999</v>
       </c>
       <c r="T28">
-        <v>0.02945172843853909</v>
+        <v>0.001139597609089999</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>11.6654212685727</v>
+        <v>0.489874</v>
       </c>
       <c r="H29">
-        <v>11.6654212685727</v>
+        <v>1.469622</v>
       </c>
       <c r="I29">
-        <v>0.1374309615555001</v>
+        <v>0.005143428747268084</v>
       </c>
       <c r="J29">
-        <v>0.1374309615555001</v>
+        <v>0.005143428747268084</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>28.4526792794311</v>
+        <v>29.761961</v>
       </c>
       <c r="N29">
-        <v>28.4526792794311</v>
+        <v>89.285883</v>
       </c>
       <c r="O29">
-        <v>0.3481221973751187</v>
+        <v>0.3454983752101716</v>
       </c>
       <c r="P29">
-        <v>0.3481221973751187</v>
+        <v>0.3454983752101716</v>
       </c>
       <c r="Q29">
-        <v>331.9124900141533</v>
+        <v>14.579610882914</v>
       </c>
       <c r="R29">
-        <v>331.9124900141533</v>
+        <v>131.216497946226</v>
       </c>
       <c r="S29">
-        <v>0.04784276832407618</v>
+        <v>0.001777046275190411</v>
       </c>
       <c r="T29">
-        <v>0.04784276832407618</v>
+        <v>0.001777046275190412</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>11.6654212685727</v>
+        <v>0.489874</v>
       </c>
       <c r="H30">
-        <v>11.6654212685727</v>
+        <v>1.469622</v>
       </c>
       <c r="I30">
-        <v>0.1374309615555001</v>
+        <v>0.005143428747268084</v>
       </c>
       <c r="J30">
-        <v>0.1374309615555001</v>
+        <v>0.005143428747268084</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>33.724670877907</v>
+        <v>34.65991666666667</v>
       </c>
       <c r="N30">
-        <v>33.724670877907</v>
+        <v>103.97975</v>
       </c>
       <c r="O30">
-        <v>0.4126256939274227</v>
+        <v>0.4023573881187897</v>
       </c>
       <c r="P30">
-        <v>0.4126256939274227</v>
+        <v>0.4023573881187896</v>
       </c>
       <c r="Q30">
-        <v>393.4124929347507</v>
+        <v>16.97899201716667</v>
       </c>
       <c r="R30">
-        <v>393.4124929347507</v>
+        <v>152.8109281545</v>
       </c>
       <c r="S30">
-        <v>0.05670754587895119</v>
+        <v>0.002069496556725885</v>
       </c>
       <c r="T30">
-        <v>0.05670754587895119</v>
+        <v>0.002069496556725885</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.489874</v>
+      </c>
+      <c r="H31">
+        <v>1.469622</v>
+      </c>
+      <c r="I31">
+        <v>0.005143428747268084</v>
+      </c>
+      <c r="J31">
+        <v>0.005143428747268084</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.1319933333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.39598</v>
+      </c>
+      <c r="O31">
+        <v>0.001532274106710954</v>
+      </c>
+      <c r="P31">
+        <v>0.001532274106710954</v>
+      </c>
+      <c r="Q31">
+        <v>0.06466010217333333</v>
+      </c>
+      <c r="R31">
+        <v>0.5819409195599999</v>
+      </c>
+      <c r="S31">
+        <v>7.881142689151643E-06</v>
+      </c>
+      <c r="T31">
+        <v>7.881142689151645E-06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>13.234361</v>
+      </c>
+      <c r="H32">
+        <v>39.703083</v>
+      </c>
+      <c r="I32">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="J32">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.282011666666667</v>
+      </c>
+      <c r="N32">
+        <v>3.846035</v>
+      </c>
+      <c r="O32">
+        <v>0.01488251892520851</v>
+      </c>
+      <c r="P32">
+        <v>0.01488251892520851</v>
+      </c>
+      <c r="Q32">
+        <v>16.96660520287833</v>
+      </c>
+      <c r="R32">
+        <v>152.699446825905</v>
+      </c>
+      <c r="S32">
+        <v>0.002067986781028211</v>
+      </c>
+      <c r="T32">
+        <v>0.002067986781028211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>13.234361</v>
+      </c>
+      <c r="H33">
+        <v>39.703083</v>
+      </c>
+      <c r="I33">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="J33">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.220258666666667</v>
+      </c>
+      <c r="N33">
+        <v>3.660776</v>
+      </c>
+      <c r="O33">
+        <v>0.01416564542469039</v>
+      </c>
+      <c r="P33">
+        <v>0.01416564542469039</v>
+      </c>
+      <c r="Q33">
+        <v>16.14934370804533</v>
+      </c>
+      <c r="R33">
+        <v>145.344093372408</v>
+      </c>
+      <c r="S33">
+        <v>0.001968374280604656</v>
+      </c>
+      <c r="T33">
+        <v>0.001968374280604656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>13.234361</v>
+      </c>
+      <c r="H34">
+        <v>39.703083</v>
+      </c>
+      <c r="I34">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="J34">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>19.08597433333334</v>
+      </c>
+      <c r="N34">
+        <v>57.25792300000001</v>
+      </c>
+      <c r="O34">
+        <v>0.221563798214429</v>
+      </c>
+      <c r="P34">
+        <v>0.221563798214429</v>
+      </c>
+      <c r="Q34">
+        <v>252.5906743640677</v>
+      </c>
+      <c r="R34">
+        <v>2273.316069276609</v>
+      </c>
+      <c r="S34">
+        <v>0.03078719457132637</v>
+      </c>
+      <c r="T34">
+        <v>0.03078719457132636</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>13.234361</v>
+      </c>
+      <c r="H35">
+        <v>39.703083</v>
+      </c>
+      <c r="I35">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="J35">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>29.761961</v>
+      </c>
+      <c r="N35">
+        <v>89.285883</v>
+      </c>
+      <c r="O35">
+        <v>0.3454983752101716</v>
+      </c>
+      <c r="P35">
+        <v>0.3454983752101716</v>
+      </c>
+      <c r="Q35">
+        <v>393.880535941921</v>
+      </c>
+      <c r="R35">
+        <v>3544.924823477289</v>
+      </c>
+      <c r="S35">
+        <v>0.04800841016174618</v>
+      </c>
+      <c r="T35">
+        <v>0.04800841016174618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>11.6654212685727</v>
-      </c>
-      <c r="H31">
-        <v>11.6654212685727</v>
-      </c>
-      <c r="I31">
-        <v>0.1374309615555001</v>
-      </c>
-      <c r="J31">
-        <v>0.1374309615555001</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.129100733219478</v>
-      </c>
-      <c r="N31">
-        <v>0.129100733219478</v>
-      </c>
-      <c r="O31">
-        <v>0.001579564106765635</v>
-      </c>
-      <c r="P31">
-        <v>0.001579564106765635</v>
-      </c>
-      <c r="Q31">
-        <v>1.506014439086829</v>
-      </c>
-      <c r="R31">
-        <v>1.506014439086829</v>
-      </c>
-      <c r="S31">
-        <v>0.0002170810140313558</v>
-      </c>
-      <c r="T31">
-        <v>0.0002170810140313558</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>13.234361</v>
+      </c>
+      <c r="H36">
+        <v>39.703083</v>
+      </c>
+      <c r="I36">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="J36">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>34.65991666666667</v>
+      </c>
+      <c r="N36">
+        <v>103.97975</v>
+      </c>
+      <c r="O36">
+        <v>0.4023573881187897</v>
+      </c>
+      <c r="P36">
+        <v>0.4023573881187896</v>
+      </c>
+      <c r="Q36">
+        <v>458.7018493965833</v>
+      </c>
+      <c r="R36">
+        <v>4128.31664456925</v>
+      </c>
+      <c r="S36">
+        <v>0.05590920220294879</v>
+      </c>
+      <c r="T36">
+        <v>0.05590920220294878</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>13.234361</v>
+      </c>
+      <c r="H37">
+        <v>39.703083</v>
+      </c>
+      <c r="I37">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="J37">
+        <v>0.1389540837421941</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.1319933333333333</v>
+      </c>
+      <c r="N37">
+        <v>0.39598</v>
+      </c>
+      <c r="O37">
+        <v>0.001532274106710954</v>
+      </c>
+      <c r="P37">
+        <v>0.001532274106710954</v>
+      </c>
+      <c r="Q37">
+        <v>1.746847422926667</v>
+      </c>
+      <c r="R37">
+        <v>15.72162680634</v>
+      </c>
+      <c r="S37">
+        <v>0.0002129157445399096</v>
+      </c>
+      <c r="T37">
+        <v>0.0002129157445399096</v>
       </c>
     </row>
   </sheetData>
